--- a/HTML.maker.xlsx
+++ b/HTML.maker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab\Elective_Course\#Elective_Courses_all_in_one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0063F8B-2B17-4BE1-8F18-BC23FA41911E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F262DC-B7D3-4EF6-8B0D-8EB3A505F828}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32916" windowHeight="13884" xr2:uid="{83FE33BA-6C84-4E3E-9D7F-802F5A33D210}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>课程链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitLab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7B7739-4033-4614-95EF-BC3A4F7AB7E4}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -467,15 +479,18 @@
     <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -483,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -491,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -499,15 +514,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -515,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -523,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -531,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -539,7 +557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -547,20 +565,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{CED20A2C-5453-4206-BD00-F6497833E8C4}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{93A9152F-7302-4F30-8331-94B89AD4B76E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>